--- a/Assets/ControllersEndpoint.xlsx
+++ b/Assets/ControllersEndpoint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Victor\Documents\GitHub\SandubaApi\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8171CF06-D584-4702-A091-31D343D40341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B73CA8C-D107-412D-AD12-5068EDF053E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7929C67E-AD7A-4674-8BBE-FDDF0D0E59E5}"/>
   </bookViews>
@@ -738,7 +738,7 @@
   <dimension ref="B3:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
